--- a/biology/Médecine/Thérèse_Bertherat/Thérèse_Bertherat.xlsx
+++ b/biology/Médecine/Thérèse_Bertherat/Thérèse_Bertherat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9r%C3%A8se_Bertherat</t>
+          <t>Thérèse_Bertherat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thérèse Bertherat est une kinésithérapeute et essayiste française née à Lyon le 28 mai 1931, décédée à Paris le 19 mai 2014[réf. nécessaire]. Elle est la créatrice de l'antigymnastique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9r%C3%A8se_Bertherat</t>
+          <t>Thérèse_Bertherat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est l’auteur du Corps a ses raisons, premier best-seller mondial sur le corps. Dans ce livre, paru en 1976, alors que la vogue du corps commençait à déferler, Thérèse Bertherat propose une approche à contre-courant de la kinésithérapie alors pratiquée. « Notre corps », explique-t-elle, « est intelligent, il a une histoire, de la mémoire. Il mérite beaucoup mieux qu’une domestication forcée et un dressage systématique. » Thérèse Bertherat s'est inspirée principalement des travaux de trois personnes : le médecin et psychanalyste autrichien Wilhelm Reich, l'instigatrice de la gymnastique holistique Lily Ehrenfried, et surtout la kinésithérapeute Françoise Mézières, créatrice de la Méthode Mézières, qu'elle a rencontrée en 1972 à Paris et qui fut son professeur de kinésithérapie. 
 Pour marquer sa différence par rapport à la gymnastique classique, la méthode inventée par Thérèse Bertherat porte le nom d'« antigymnastique ». Elle est considérée comme une pédagogie corporelle. Elle vise une meilleure connaissance de son corps afin d'apprendre à relâcher, par soi-même, tensions et contractions musculaires. Plus de trente ans après sa création, l'antigymnastique est connue et pratiquée dans de nombreux pays.
